--- a/SuppXLS/Scen_UC_GRIDELCBND.xlsx
+++ b/SuppXLS/Scen_UC_GRIDELCBND.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6068216-2306-49EB-85AD-5F8291519EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E6068216-2306-49EB-85AD-5F8291519EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146A6CA9-C4D0-4B7A-94E5-ACB3D7C42F90}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_CO2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -731,7 +731,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,10 +861,10 @@
       </c>
       <c r="L7" s="8">
         <f>K24*(1-R7)</f>
-        <v>5319.86</v>
+        <v>759.9799999999999</v>
       </c>
       <c r="R7" s="11">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">

--- a/SuppXLS/Scen_UC_GRIDELCBND.xlsx
+++ b/SuppXLS/Scen_UC_GRIDELCBND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{E6068216-2306-49EB-85AD-5F8291519EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{146A6CA9-C4D0-4B7A-94E5-ACB3D7C42F90}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D970E74D-852A-4BA8-8627-4989AD5CA0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_CO2" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="L6" s="8">
         <f>G24*(1-R6)</f>
-        <v>5842.648000000001</v>
+        <v>3639.1787015785953</v>
       </c>
       <c r="M6">
         <v>5</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="L7" s="8">
         <f>K24*(1-R7)</f>
-        <v>759.9799999999999</v>
+        <v>1449.4037242361694</v>
       </c>
       <c r="R7" s="11">
         <v>0.9</v>
@@ -947,13 +947,13 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8">
-        <v>7303.31</v>
+        <v>4548.9733769732438</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8">
-        <v>7599.8</v>
+        <v>14494.037242361697</v>
       </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>

--- a/SuppXLS/Scen_UC_GRIDELCBND.xlsx
+++ b/SuppXLS/Scen_UC_GRIDELCBND.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D970E74D-852A-4BA8-8627-4989AD5CA0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ECB2F3-3688-4722-87DD-ADEE578C3E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UC_CO2" sheetId="1" r:id="rId1"/>
+    <sheet name="UC_GRID" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,17 +113,17 @@
     <t>AU_ELCGRID_BND</t>
   </si>
   <si>
-    <t>ELC</t>
-  </si>
-  <si>
     <t>Grid elctricity supply constriant  Bound Constraint</t>
+  </si>
+  <si>
+    <t>ELCGRID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +228,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -236,6 +243,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +739,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +829,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6">
         <v>2030</v>
@@ -840,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R6" s="11">
         <v>0.2</v>
@@ -848,7 +856,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <v>2050</v>
@@ -942,17 +950,17 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="8">
+      <c r="G24" s="12">
         <v>4548.9733769732438</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8">
+      <c r="K24" s="12">
         <v>14494.037242361697</v>
       </c>
       <c r="L24" s="8"/>
